--- a/1_Lab/Docs/МэппингСценария.xlsx
+++ b/1_Lab/Docs/МэппингСценария.xlsx
@@ -538,7 +538,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/1_Lab/Docs/МэппингСценария.xlsx
+++ b/1_Lab/Docs/МэппингСценария.xlsx
@@ -63,9 +63,6 @@
     <t>Передать системе список товаров и посмотреть на результат</t>
   </si>
   <si>
-    <t>При создании определяем список&lt;Вид(N или любой), количество&gt;</t>
-  </si>
-  <si>
     <t>Пишем функцию определения цены.</t>
   </si>
   <si>
@@ -75,7 +72,10 @@
     <t>Вход: словарь&lt;Вид, пары&lt;товар, участвует в скидке&gt;. (товары подходящие для правила)</t>
   </si>
   <si>
-    <t>Передаём список правил в систему(старый заменяется)</t>
+    <t>Передаём список правил в систему(передаётся в конструктор)</t>
+  </si>
+  <si>
+    <t>При создании определяем список&lt;Вид(N или любой), количество&gt; обязательных(число которых больше 0) и необязательных(число которых больше либо равно 0)</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -603,13 +603,13 @@
       </c>
       <c r="B5"/>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" customHeight="1">
@@ -618,7 +618,7 @@
       </c>
       <c r="B6"/>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" customHeight="1">
@@ -628,7 +628,7 @@
       <c r="B7"/>
       <c r="C7" s="1"/>
       <c r="D7" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -639,7 +639,7 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
